--- a/9-rolling-cumulative-aggregations/9-rolling-cumulative-aggregations-solution.xlsx
+++ b/9-rolling-cumulative-aggregations/9-rolling-cumulative-aggregations-solution.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\9-rolling-cumulative-aggregations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEBEC2C-FD75-44C1-8F67-63142E90EC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82943CD-C369-40A7-8F1E-AD200410F6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,10 +32,197 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="16">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="12"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="13"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="14"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="15"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="16"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="17"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="7"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="8"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="9"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="16">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
+    <bk>
+      <rc t="2" v="3"/>
+    </bk>
+    <bk>
+      <rc t="2" v="4"/>
+    </bk>
+    <bk>
+      <rc t="2" v="5"/>
+    </bk>
+    <bk>
+      <rc t="2" v="6"/>
+    </bk>
+    <bk>
+      <rc t="2" v="7"/>
+    </bk>
+    <bk>
+      <rc t="2" v="8"/>
+    </bk>
+    <bk>
+      <rc t="2" v="9"/>
+    </bk>
+    <bk>
+      <rc t="2" v="10"/>
+    </bk>
+    <bk>
+      <rc t="2" v="11"/>
+    </bk>
+    <bk>
+      <rc t="2" v="12"/>
+    </bk>
+    <bk>
+      <rc t="2" v="13"/>
+    </bk>
+    <bk>
+      <rc t="2" v="14"/>
+    </bk>
+    <bk>
+      <rc t="2" v="15"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
 <python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
   <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
-    <initialization>
+    <initialization userModified="1">
       <code xml:space="preserve">import numpy as np
 import pandas as pd
 import matplotlib.pyplot as plt
@@ -49,6 +236,27 @@
 </code>
     </initialization>
   </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code>sales_df = xl(%P2%, headers=True)</code>
+    </pythonScript>
+    <pythonScript>
+      <code>sales_df['Moving_Avg_7'] = sales_df['Sales'].rolling(window=7).mean()
+sales_df.head(10)</code>
+    </pythonScript>
+    <pythonScript>
+      <code>sales_df['Cumulative_Sum'] = sales_df['Sales'].cumsum()
+pd.concat([sales_df.head(), sales_df.tail()])</code>
+    </pythonScript>
+    <pythonScript>
+      <code>sales_df['Cumulative_Avg'] = sales_df['Sales'].expanding().mean()
+sales_df.head()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>sales_df['Moving_Avg_7'] = sales_df['Sales'].rolling(window=7, min_periods=1).mean()
+sales_df.head()</code>
+    </pythonScript>
+  </pythonScripts>
 </python>
 </file>
 
@@ -119,6 +327,264 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="1">
+  <a r="12" c="3">
+    <v t="s"/>
+    <v t="s">Date</v>
+    <v t="s">Sales</v>
+    <v>0</v>
+    <v t="r">0</v>
+    <v>52.48</v>
+    <v>1</v>
+    <v t="r">1</v>
+    <v>49.34</v>
+    <v>2</v>
+    <v t="r">2</v>
+    <v>53.31</v>
+    <v>3</v>
+    <v t="r">3</v>
+    <v>57.72</v>
+    <v>4</v>
+    <v t="r">4</v>
+    <v>48.97</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v>361</v>
+    <v t="r">5</v>
+    <v>70.03</v>
+    <v>362</v>
+    <v t="r">6</v>
+    <v>61.85</v>
+    <v>363</v>
+    <v t="r">7</v>
+    <v>64.44</v>
+    <v>364</v>
+    <v t="r">8</v>
+    <v>65.92</v>
+    <v>365</v>
+    <v t="r">9</v>
+    <v>60.49</v>
+  </a>
+</arrayData>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="18">
+  <rv s="0">
+    <fb>44927</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44928</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44929</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44930</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44931</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>45288</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>45289</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>45290</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>45291</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>45292</fb>
+    <v>2</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+  </rv>
+  <rv s="2">
+    <v>DataFrame</v>
+    <v>1</v>
+    <v>10</v>
+  </rv>
+  <rv s="3">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">          Date  Sales
+0   2023-01-01  52.48
+1   2023-01-02  49.34
+2   2023-01-03  53.31
+3   2023-01-04  57.72
+4   2023-01-05  48.97
+..         ...    ...
+361 2023-12-28  70.03
+362 2023-12-29  61.85
+363 2023-12-30  64.44
+364 2023-12-31  65.92
+365 2024-0...</v>
+    <v>11</v>
+    <v>3</v>
+  </rv>
+  <rv s="0">
+    <fb>44932</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44933</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44934</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44935</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44936</fb>
+    <v>2</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+  <s t="_formattednumber">
+    <k n="_Format" t="spb"/>
+  </s>
+  <s t="_array">
+    <k n="array" t="a"/>
+  </s>
+  <s t="_entity">
+    <k n="_DisplayString" t="s"/>
+    <k n="_ViewInfo" t="spb"/>
+    <k n="arrayPreview" t="r"/>
+  </s>
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="preview" t="r"/>
+    <k n="_Provider" t="spb"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbData count="4">
+    <spb s="0">
+      <v>366</v>
+      <v>2</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>https://www.anaconda.com/excel</v>
+      <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
+      <v>Python provided by Anaconda</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="4">
+  <s>
+    <k n="drw" t="i"/>
+    <k n="dcol" t="i"/>
+    <k n="name" t="s"/>
+    <k n="array" t="s"/>
+    <k n="headers" t="b"/>
+  </s>
+  <s>
+    <k n="ArrayCardInfo" t="spb"/>
+  </s>
+  <s>
+    <k n="_Self" t="i"/>
+  </s>
+  <s>
+    <k n="link" t="s"/>
+    <k n="logo" t="s"/>
+    <k n="name" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="1">
+    <x:dxf>
+      <x:numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </x:dxf>
+  </dxfs>
+  <richStyles>
+    <rSty dxfid="0"/>
+  </richStyles>
+</richStyleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -479,26 +945,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B367"/>
+  <dimension ref="A1:H367"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.19921875" customWidth="1"/>
+    <col min="4" max="4" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D1" t="e" cm="1" vm="1">
+        <f t="array" ref="D1">_xlfn._xlws.PY(0,1,daily_sales[#All])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>44927</v>
       </c>
@@ -506,95 +980,195 @@
         <v>52.48</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>44928</v>
       </c>
       <c r="B3">
         <v>49.34</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D3" t="str" cm="1">
+        <f t="array" ref="D3:F13">_xlfn._xlws.PY(1,0)</f>
+        <v>Date</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Moving_Avg_7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>44929</v>
       </c>
       <c r="B4">
         <v>53.31</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D4" vm="2">
+        <v>44927</v>
+      </c>
+      <c r="E4">
+        <v>52.48</v>
+      </c>
+      <c r="F4" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>44930</v>
       </c>
       <c r="B5">
         <v>57.72</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D5" vm="3">
+        <v>44928</v>
+      </c>
+      <c r="E5">
+        <v>49.34</v>
+      </c>
+      <c r="F5" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>44931</v>
       </c>
       <c r="B6">
         <v>48.97</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D6" vm="4">
+        <v>44929</v>
+      </c>
+      <c r="E6">
+        <v>53.31</v>
+      </c>
+      <c r="F6" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>44932</v>
       </c>
       <c r="B7">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D7" vm="5">
+        <v>44930</v>
+      </c>
+      <c r="E7">
+        <v>57.72</v>
+      </c>
+      <c r="F7" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>44933</v>
       </c>
       <c r="B8">
         <v>58.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D8" vm="6">
+        <v>44931</v>
+      </c>
+      <c r="E8">
+        <v>48.97</v>
+      </c>
+      <c r="F8" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>44934</v>
       </c>
       <c r="B9">
         <v>54.08</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D9" vm="7">
+        <v>44932</v>
+      </c>
+      <c r="E9">
+        <v>49</v>
+      </c>
+      <c r="F9" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>44935</v>
       </c>
       <c r="B10">
         <v>47.93</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D10" vm="8">
+        <v>44933</v>
+      </c>
+      <c r="E10">
+        <v>58.1</v>
+      </c>
+      <c r="F10">
+        <v>52.702857142857148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>44936</v>
       </c>
       <c r="B11">
         <v>53.02</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D11" vm="9">
+        <v>44934</v>
+      </c>
+      <c r="E11">
+        <v>54.08</v>
+      </c>
+      <c r="F11">
+        <v>52.931428571428569</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>44937</v>
       </c>
       <c r="B12">
         <v>48.03</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D12" vm="10">
+        <v>44935</v>
+      </c>
+      <c r="E12">
+        <v>47.93</v>
+      </c>
+      <c r="F12">
+        <v>52.730000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>44938</v>
       </c>
       <c r="B13">
         <v>48.05</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D13" vm="11">
+        <v>44936</v>
+      </c>
+      <c r="E13">
+        <v>53.02</v>
+      </c>
+      <c r="F13">
+        <v>52.688571428571429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>44939</v>
       </c>
@@ -602,95 +1176,261 @@
         <v>51.62</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>44940</v>
       </c>
       <c r="B15">
         <v>40.880000000000003</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D15" t="str" cm="1">
+        <f t="array" ref="D15:H25">_xlfn._xlws.PY(2,0)</f>
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <v>Date</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Moving_Avg_7</v>
+      </c>
+      <c r="H15" t="str">
+        <v>Cumulative_Sum</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>44941</v>
       </c>
       <c r="B16">
         <v>41.85</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" vm="2">
+        <v>44927</v>
+      </c>
+      <c r="F16">
+        <v>52.48</v>
+      </c>
+      <c r="G16" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H16">
+        <v>52.48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>44942</v>
       </c>
       <c r="B17">
         <v>47.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" vm="3">
+        <v>44928</v>
+      </c>
+      <c r="F17">
+        <v>49.34</v>
+      </c>
+      <c r="G17" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H17">
+        <v>101.82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>44943</v>
       </c>
       <c r="B18">
         <v>45.48</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" vm="4">
+        <v>44929</v>
+      </c>
+      <c r="F18">
+        <v>53.31</v>
+      </c>
+      <c r="G18" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H18">
+        <v>155.13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>44944</v>
       </c>
       <c r="B19">
         <v>52.15</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" vm="5">
+        <v>44930</v>
+      </c>
+      <c r="F19">
+        <v>57.72</v>
+      </c>
+      <c r="G19" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H19">
+        <v>212.85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>44945</v>
       </c>
       <c r="B20">
         <v>46.08</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20" vm="6">
+        <v>44931</v>
+      </c>
+      <c r="F20">
+        <v>48.97</v>
+      </c>
+      <c r="G20" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H20">
+        <v>261.82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>44946</v>
       </c>
       <c r="B21">
         <v>43.59</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D21">
+        <v>361</v>
+      </c>
+      <c r="E21" vm="12">
+        <v>45288</v>
+      </c>
+      <c r="F21">
+        <v>70.03</v>
+      </c>
+      <c r="G21">
+        <v>62.43</v>
+      </c>
+      <c r="H21">
+        <v>20350.909999999993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>44947</v>
       </c>
       <c r="B22">
         <v>58.01</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D22">
+        <v>362</v>
+      </c>
+      <c r="E22" vm="13">
+        <v>45289</v>
+      </c>
+      <c r="F22">
+        <v>61.85</v>
+      </c>
+      <c r="G22">
+        <v>63.102857142857147</v>
+      </c>
+      <c r="H22">
+        <v>20412.759999999991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>44948</v>
       </c>
       <c r="B23">
         <v>49.59</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D23">
+        <v>363</v>
+      </c>
+      <c r="E23" vm="14">
+        <v>45290</v>
+      </c>
+      <c r="F23">
+        <v>64.44</v>
+      </c>
+      <c r="G23">
+        <v>63.437142857142859</v>
+      </c>
+      <c r="H23">
+        <v>20477.19999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>44949</v>
       </c>
       <c r="B24">
         <v>51.09</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D24">
+        <v>364</v>
+      </c>
+      <c r="E24" vm="15">
+        <v>45291</v>
+      </c>
+      <c r="F24">
+        <v>65.92</v>
+      </c>
+      <c r="G24">
+        <v>64.171428571428564</v>
+      </c>
+      <c r="H24">
+        <v>20543.119999999988</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>44950</v>
       </c>
       <c r="B25">
         <v>43.66</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D25">
+        <v>365</v>
+      </c>
+      <c r="E25" vm="16">
+        <v>45292</v>
+      </c>
+      <c r="F25">
+        <v>60.49</v>
+      </c>
+      <c r="G25">
+        <v>63.688571428571436</v>
+      </c>
+      <c r="H25">
+        <v>20603.60999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>44951</v>
       </c>
@@ -698,55 +1438,146 @@
         <v>48.1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>44952</v>
       </c>
       <c r="B27">
         <v>51.41</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D27" t="str" cm="1">
+        <f t="array" ref="D27:H32">_xlfn._xlws.PY(3,0)</f>
+        <v>Date</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="F27" t="str">
+        <v>Moving_Avg_7</v>
+      </c>
+      <c r="G27" t="str">
+        <v>Cumulative_Sum</v>
+      </c>
+      <c r="H27" t="str">
+        <v>Cumulative_Avg</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>44953</v>
       </c>
       <c r="B28">
         <v>45.14</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D28" vm="2">
+        <v>44927</v>
+      </c>
+      <c r="E28">
+        <v>52.48</v>
+      </c>
+      <c r="F28" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G28">
+        <v>52.48</v>
+      </c>
+      <c r="H28">
+        <v>52.48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>44954</v>
       </c>
       <c r="B29">
         <v>52.8</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D29" vm="3">
+        <v>44928</v>
+      </c>
+      <c r="E29">
+        <v>49.34</v>
+      </c>
+      <c r="F29" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G29">
+        <v>101.82</v>
+      </c>
+      <c r="H29">
+        <v>50.91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>44955</v>
       </c>
       <c r="B30">
         <v>47.96</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D30" vm="4">
+        <v>44929</v>
+      </c>
+      <c r="E30">
+        <v>53.31</v>
+      </c>
+      <c r="F30" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G30">
+        <v>155.13</v>
+      </c>
+      <c r="H30">
+        <v>51.71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>44956</v>
       </c>
       <c r="B31">
         <v>49.53</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D31" vm="5">
+        <v>44930</v>
+      </c>
+      <c r="E31">
+        <v>57.72</v>
+      </c>
+      <c r="F31" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G31">
+        <v>212.85</v>
+      </c>
+      <c r="H31">
+        <v>53.212499999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>44957</v>
       </c>
       <c r="B32">
         <v>48.02</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D32" vm="6">
+        <v>44931</v>
+      </c>
+      <c r="E32">
+        <v>48.97</v>
+      </c>
+      <c r="F32" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G32">
+        <v>261.82</v>
+      </c>
+      <c r="H32">
+        <v>52.363999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>44958</v>
       </c>
@@ -754,55 +1585,146 @@
         <v>60.32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>44959</v>
       </c>
       <c r="B34">
         <v>51.03</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D34" t="str" cm="1">
+        <f t="array" ref="D34:H39">_xlfn._xlws.PY(4,0)</f>
+        <v>Date</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="F34" t="str">
+        <v>Moving_Avg_7</v>
+      </c>
+      <c r="G34" t="str">
+        <v>Cumulative_Sum</v>
+      </c>
+      <c r="H34" t="str">
+        <v>Cumulative_Avg</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>44960</v>
       </c>
       <c r="B35">
         <v>45.84</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D35" vm="2">
+        <v>44927</v>
+      </c>
+      <c r="E35">
+        <v>52.48</v>
+      </c>
+      <c r="F35">
+        <v>52.48</v>
+      </c>
+      <c r="G35">
+        <v>52.48</v>
+      </c>
+      <c r="H35">
+        <v>52.48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>44961</v>
       </c>
       <c r="B36">
         <v>55.28</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D36" vm="3">
+        <v>44928</v>
+      </c>
+      <c r="E36">
+        <v>49.34</v>
+      </c>
+      <c r="F36">
+        <v>50.91</v>
+      </c>
+      <c r="G36">
+        <v>101.82</v>
+      </c>
+      <c r="H36">
+        <v>50.91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>44962</v>
       </c>
       <c r="B37">
         <v>45.09</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D37" vm="4">
+        <v>44929</v>
+      </c>
+      <c r="E37">
+        <v>53.31</v>
+      </c>
+      <c r="F37">
+        <v>51.71</v>
+      </c>
+      <c r="G37">
+        <v>155.13</v>
+      </c>
+      <c r="H37">
+        <v>51.71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>44963</v>
       </c>
       <c r="B38">
         <v>52.28</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D38" vm="5">
+        <v>44930</v>
+      </c>
+      <c r="E38">
+        <v>57.72</v>
+      </c>
+      <c r="F38">
+        <v>53.212499999999999</v>
+      </c>
+      <c r="G38">
+        <v>212.85</v>
+      </c>
+      <c r="H38">
+        <v>53.212499999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>44964</v>
       </c>
       <c r="B39">
         <v>41.47</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D39" vm="6">
+        <v>44931</v>
+      </c>
+      <c r="E39">
+        <v>48.97</v>
+      </c>
+      <c r="F39">
+        <v>52.363999999999997</v>
+      </c>
+      <c r="G39">
+        <v>261.82</v>
+      </c>
+      <c r="H39">
+        <v>52.363999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>44965</v>
       </c>
@@ -810,7 +1732,7 @@
         <v>44.66</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>44966</v>
       </c>
@@ -818,7 +1740,7 @@
         <v>52.32</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>44967</v>
       </c>
@@ -826,7 +1748,7 @@
         <v>55.06</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>44968</v>
       </c>
@@ -834,7 +1756,7 @@
         <v>52.26</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>44969</v>
       </c>
@@ -842,7 +1764,7 @@
         <v>50.86</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>44970</v>
       </c>
@@ -850,7 +1772,7 @@
         <v>49.97</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>44971</v>
       </c>
@@ -858,7 +1780,7 @@
         <v>44.11</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>44972</v>
       </c>
@@ -866,7 +1788,7 @@
         <v>47.94</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>44973</v>
       </c>

--- a/9-rolling-cumulative-aggregations/9-rolling-cumulative-aggregations-solution.xlsx
+++ b/9-rolling-cumulative-aggregations/9-rolling-cumulative-aggregations-solution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\9-rolling-cumulative-aggregations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82943CD-C369-40A7-8F1E-AD200410F6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88A3CB65-4C6D-4EAC-BB86-8634CFCF4A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="16">
+  <futureMetadata name="XLRICHVALUE" count="21">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -128,6 +128,41 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="18"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="19"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="20"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="21"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="22"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="5"/>
         </ext>
       </extLst>
@@ -166,7 +201,7 @@
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="16">
+  <valueMetadata count="21">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -215,6 +250,21 @@
     <bk>
       <rc t="2" v="15"/>
     </bk>
+    <bk>
+      <rc t="2" v="16"/>
+    </bk>
+    <bk>
+      <rc t="2" v="17"/>
+    </bk>
+    <bk>
+      <rc t="2" v="18"/>
+    </bk>
+    <bk>
+      <rc t="2" v="19"/>
+    </bk>
+    <bk>
+      <rc t="2" v="20"/>
+    </bk>
   </valueMetadata>
 </metadata>
 </file>
@@ -242,19 +292,19 @@
     </pythonScript>
     <pythonScript>
       <code>sales_df['Moving_Avg_7'] = sales_df['Sales'].rolling(window=7).mean()
-sales_df.head(10)</code>
+sales_df.head(15)</code>
     </pythonScript>
     <pythonScript>
-      <code>sales_df['Cumulative_Sum'] = sales_df['Sales'].cumsum()
+      <code>sales_df['Cumulative_Sum'] = sales_df['Sales'].expanding().sum()
 pd.concat([sales_df.head(), sales_df.tail()])</code>
     </pythonScript>
     <pythonScript>
-      <code>sales_df['Cumulative_Avg'] = sales_df['Sales'].expanding().mean()
-sales_df.head()</code>
+      <code>sales_df['Cumulative_Average'] = sales_df['Sales'].expanding().mean()
+pd.concat([sales_df.head(), sales_df.tail()])</code>
     </pythonScript>
     <pythonScript>
       <code>sales_df['Moving_Avg_7'] = sales_df['Sales'].rolling(window=7, min_periods=1).mean()
-sales_df.head()</code>
+sales_df.head(15)</code>
     </pythonScript>
   </pythonScripts>
 </python>
@@ -413,7 +463,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="18">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="23">
   <rv s="0">
     <fb>44927</fb>
     <v>2</v>
@@ -498,6 +548,26 @@
   </rv>
   <rv s="0">
     <fb>44936</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44937</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44938</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44939</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44940</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44941</fb>
     <v>2</v>
   </rv>
 </rvData>
@@ -945,22 +1015,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H367"/>
+  <dimension ref="A1:I367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.19921875" customWidth="1"/>
-    <col min="4" max="4" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.20703125" customWidth="1"/>
+    <col min="4" max="4" width="11.5234375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.89453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -972,7 +1040,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>44927</v>
       </c>
@@ -980,7 +1048,7 @@
         <v>52.48</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>44928</v>
       </c>
@@ -988,7 +1056,7 @@
         <v>49.34</v>
       </c>
       <c r="D3" t="str" cm="1">
-        <f t="array" ref="D3:F13">_xlfn._xlws.PY(1,0)</f>
+        <f t="array" ref="D3:F18">_xlfn._xlws.PY(1,0)</f>
         <v>Date</v>
       </c>
       <c r="E3" t="str">
@@ -998,7 +1066,7 @@
         <v>Moving_Avg_7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>44929</v>
       </c>
@@ -1015,7 +1083,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>44930</v>
       </c>
@@ -1032,7 +1100,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>44931</v>
       </c>
@@ -1049,7 +1117,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>44932</v>
       </c>
@@ -1066,7 +1134,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>44933</v>
       </c>
@@ -1083,7 +1151,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>44934</v>
       </c>
@@ -1100,7 +1168,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>44935</v>
       </c>
@@ -1117,7 +1185,7 @@
         <v>52.702857142857148</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>44936</v>
       </c>
@@ -1134,7 +1202,7 @@
         <v>52.931428571428569</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>44937</v>
       </c>
@@ -1151,7 +1219,7 @@
         <v>52.730000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>44938</v>
       </c>
@@ -1168,154 +1236,124 @@
         <v>52.688571428571429</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>44939</v>
       </c>
       <c r="B14">
         <v>51.62</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D14" vm="12">
+        <v>44937</v>
+      </c>
+      <c r="E14">
+        <v>48.03</v>
+      </c>
+      <c r="F14">
+        <v>51.304285714285712</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>44940</v>
       </c>
       <c r="B15">
         <v>40.880000000000003</v>
       </c>
-      <c r="D15" t="str" cm="1">
-        <f t="array" ref="D15:H25">_xlfn._xlws.PY(2,0)</f>
-        <v/>
-      </c>
-      <c r="E15" t="str">
-        <v>Date</v>
-      </c>
-      <c r="F15" t="str">
-        <v>Sales</v>
-      </c>
-      <c r="G15" t="str">
-        <v>Moving_Avg_7</v>
-      </c>
-      <c r="H15" t="str">
-        <v>Cumulative_Sum</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D15" vm="13">
+        <v>44938</v>
+      </c>
+      <c r="E15">
+        <v>48.05</v>
+      </c>
+      <c r="F15">
+        <v>51.172857142857147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>44941</v>
       </c>
       <c r="B16">
         <v>41.85</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" vm="2">
-        <v>44927</v>
+      <c r="D16" vm="14">
+        <v>44939</v>
+      </c>
+      <c r="E16">
+        <v>51.62</v>
       </c>
       <c r="F16">
-        <v>52.48</v>
-      </c>
-      <c r="G16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H16">
-        <v>52.48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+        <v>51.547142857142852</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>44942</v>
       </c>
       <c r="B17">
         <v>47.7</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" vm="3">
-        <v>44928</v>
+      <c r="D17" vm="15">
+        <v>44940</v>
+      </c>
+      <c r="E17">
+        <v>40.880000000000003</v>
       </c>
       <c r="F17">
-        <v>49.34</v>
-      </c>
-      <c r="G17" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H17">
-        <v>101.82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+        <v>49.087142857142858</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>44943</v>
       </c>
       <c r="B18">
         <v>45.48</v>
       </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18" vm="4">
-        <v>44929</v>
+      <c r="D18" vm="16">
+        <v>44941</v>
+      </c>
+      <c r="E18">
+        <v>41.85</v>
       </c>
       <c r="F18">
-        <v>53.31</v>
-      </c>
-      <c r="G18" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H18">
-        <v>155.13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+        <v>47.339999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>44944</v>
       </c>
       <c r="B19">
         <v>52.15</v>
       </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19" vm="5">
-        <v>44930</v>
-      </c>
-      <c r="F19">
-        <v>57.72</v>
-      </c>
-      <c r="G19" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H19">
-        <v>212.85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>44945</v>
       </c>
       <c r="B20">
         <v>46.08</v>
       </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-      <c r="E20" vm="6">
-        <v>44931</v>
-      </c>
-      <c r="F20">
-        <v>48.97</v>
-      </c>
-      <c r="G20" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H20">
-        <v>261.82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D20" t="str" cm="1">
+        <f t="array" ref="D20:H30">_xlfn._xlws.PY(2,0)</f>
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <v>Date</v>
+      </c>
+      <c r="F20" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="G20" t="str">
+        <v>Moving_Avg_7</v>
+      </c>
+      <c r="H20" t="str">
+        <v>Cumulative_Sum</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>44946</v>
       </c>
@@ -1323,22 +1361,22 @@
         <v>43.59</v>
       </c>
       <c r="D21">
-        <v>361</v>
-      </c>
-      <c r="E21" vm="12">
-        <v>45288</v>
+        <v>0</v>
+      </c>
+      <c r="E21" vm="2">
+        <v>44927</v>
       </c>
       <c r="F21">
-        <v>70.03</v>
-      </c>
-      <c r="G21">
-        <v>62.43</v>
+        <v>52.48</v>
+      </c>
+      <c r="G21" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H21">
-        <v>20350.909999999993</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+        <v>52.48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>44947</v>
       </c>
@@ -1346,22 +1384,22 @@
         <v>58.01</v>
       </c>
       <c r="D22">
-        <v>362</v>
-      </c>
-      <c r="E22" vm="13">
-        <v>45289</v>
+        <v>1</v>
+      </c>
+      <c r="E22" vm="3">
+        <v>44928</v>
       </c>
       <c r="F22">
-        <v>61.85</v>
-      </c>
-      <c r="G22">
-        <v>63.102857142857147</v>
+        <v>49.34</v>
+      </c>
+      <c r="G22" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H22">
-        <v>20412.759999999991</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+        <v>101.82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>44948</v>
       </c>
@@ -1369,22 +1407,22 @@
         <v>49.59</v>
       </c>
       <c r="D23">
-        <v>363</v>
-      </c>
-      <c r="E23" vm="14">
-        <v>45290</v>
+        <v>2</v>
+      </c>
+      <c r="E23" vm="4">
+        <v>44929</v>
       </c>
       <c r="F23">
-        <v>64.44</v>
-      </c>
-      <c r="G23">
-        <v>63.437142857142859</v>
+        <v>53.31</v>
+      </c>
+      <c r="G23" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H23">
-        <v>20477.19999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+        <v>155.13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>44949</v>
       </c>
@@ -1392,22 +1430,22 @@
         <v>51.09</v>
       </c>
       <c r="D24">
-        <v>364</v>
-      </c>
-      <c r="E24" vm="15">
-        <v>45291</v>
+        <v>3</v>
+      </c>
+      <c r="E24" vm="5">
+        <v>44930</v>
       </c>
       <c r="F24">
-        <v>65.92</v>
-      </c>
-      <c r="G24">
-        <v>64.171428571428564</v>
+        <v>57.72</v>
+      </c>
+      <c r="G24" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H24">
-        <v>20543.119999999988</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+        <v>212.85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>44950</v>
       </c>
@@ -1415,340 +1453,432 @@
         <v>43.66</v>
       </c>
       <c r="D25">
-        <v>365</v>
-      </c>
-      <c r="E25" vm="16">
-        <v>45292</v>
+        <v>4</v>
+      </c>
+      <c r="E25" vm="6">
+        <v>44931</v>
       </c>
       <c r="F25">
-        <v>60.49</v>
-      </c>
-      <c r="G25">
-        <v>63.688571428571436</v>
+        <v>48.97</v>
+      </c>
+      <c r="G25" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H25">
-        <v>20603.60999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+        <v>261.82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>44951</v>
       </c>
       <c r="B26">
         <v>48.1</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D26">
+        <v>361</v>
+      </c>
+      <c r="E26" vm="17">
+        <v>45288</v>
+      </c>
+      <c r="F26">
+        <v>70.03</v>
+      </c>
+      <c r="G26">
+        <v>62.43</v>
+      </c>
+      <c r="H26">
+        <v>20350.91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>44952</v>
       </c>
       <c r="B27">
         <v>51.41</v>
       </c>
-      <c r="D27" t="str" cm="1">
-        <f t="array" ref="D27:H32">_xlfn._xlws.PY(3,0)</f>
-        <v>Date</v>
-      </c>
-      <c r="E27" t="str">
-        <v>Sales</v>
-      </c>
-      <c r="F27" t="str">
-        <v>Moving_Avg_7</v>
-      </c>
-      <c r="G27" t="str">
-        <v>Cumulative_Sum</v>
-      </c>
-      <c r="H27" t="str">
-        <v>Cumulative_Avg</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D27">
+        <v>362</v>
+      </c>
+      <c r="E27" vm="18">
+        <v>45289</v>
+      </c>
+      <c r="F27">
+        <v>61.85</v>
+      </c>
+      <c r="G27">
+        <v>63.102857142857147</v>
+      </c>
+      <c r="H27">
+        <v>20412.759999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>44953</v>
       </c>
       <c r="B28">
         <v>45.14</v>
       </c>
-      <c r="D28" vm="2">
-        <v>44927</v>
-      </c>
-      <c r="E28">
-        <v>52.48</v>
-      </c>
-      <c r="F28" t="e">
-        <v>#NUM!</v>
+      <c r="D28">
+        <v>363</v>
+      </c>
+      <c r="E28" vm="19">
+        <v>45290</v>
+      </c>
+      <c r="F28">
+        <v>64.44</v>
       </c>
       <c r="G28">
-        <v>52.48</v>
+        <v>63.437142857142859</v>
       </c>
       <c r="H28">
-        <v>52.48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+        <v>20477.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>44954</v>
       </c>
       <c r="B29">
         <v>52.8</v>
       </c>
-      <c r="D29" vm="3">
-        <v>44928</v>
-      </c>
-      <c r="E29">
-        <v>49.34</v>
-      </c>
-      <c r="F29" t="e">
-        <v>#NUM!</v>
+      <c r="D29">
+        <v>364</v>
+      </c>
+      <c r="E29" vm="20">
+        <v>45291</v>
+      </c>
+      <c r="F29">
+        <v>65.92</v>
       </c>
       <c r="G29">
-        <v>101.82</v>
+        <v>64.171428571428564</v>
       </c>
       <c r="H29">
-        <v>50.91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+        <v>20543.12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>44955</v>
       </c>
       <c r="B30">
         <v>47.96</v>
       </c>
-      <c r="D30" vm="4">
-        <v>44929</v>
-      </c>
-      <c r="E30">
-        <v>53.31</v>
-      </c>
-      <c r="F30" t="e">
-        <v>#NUM!</v>
+      <c r="D30">
+        <v>365</v>
+      </c>
+      <c r="E30" vm="21">
+        <v>45292</v>
+      </c>
+      <c r="F30">
+        <v>60.49</v>
       </c>
       <c r="G30">
-        <v>155.13</v>
+        <v>63.688571428571436</v>
       </c>
       <c r="H30">
-        <v>51.71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+        <v>20603.61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>44956</v>
       </c>
       <c r="B31">
         <v>49.53</v>
       </c>
-      <c r="D31" vm="5">
-        <v>44930</v>
-      </c>
-      <c r="E31">
-        <v>57.72</v>
-      </c>
-      <c r="F31" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G31">
-        <v>212.85</v>
-      </c>
-      <c r="H31">
-        <v>53.212499999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>44957</v>
       </c>
       <c r="B32">
         <v>48.02</v>
       </c>
-      <c r="D32" vm="6">
-        <v>44931</v>
-      </c>
-      <c r="E32">
-        <v>48.97</v>
-      </c>
-      <c r="F32" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G32">
-        <v>261.82</v>
-      </c>
-      <c r="H32">
-        <v>52.363999999999997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D32" t="str" cm="1">
+        <f t="array" ref="D32:I42">_xlfn._xlws.PY(3,0)</f>
+        <v/>
+      </c>
+      <c r="E32" t="str">
+        <v>Date</v>
+      </c>
+      <c r="F32" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="G32" t="str">
+        <v>Moving_Avg_7</v>
+      </c>
+      <c r="H32" t="str">
+        <v>Cumulative_Sum</v>
+      </c>
+      <c r="I32" t="str">
+        <v>Cumulative_Average</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>44958</v>
       </c>
       <c r="B33">
         <v>60.32</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" vm="2">
+        <v>44927</v>
+      </c>
+      <c r="F33">
+        <v>52.48</v>
+      </c>
+      <c r="G33" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H33">
+        <v>52.48</v>
+      </c>
+      <c r="I33">
+        <v>52.48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>44959</v>
       </c>
       <c r="B34">
         <v>51.03</v>
       </c>
-      <c r="D34" t="str" cm="1">
-        <f t="array" ref="D34:H39">_xlfn._xlws.PY(4,0)</f>
-        <v>Date</v>
-      </c>
-      <c r="E34" t="str">
-        <v>Sales</v>
-      </c>
-      <c r="F34" t="str">
-        <v>Moving_Avg_7</v>
-      </c>
-      <c r="G34" t="str">
-        <v>Cumulative_Sum</v>
-      </c>
-      <c r="H34" t="str">
-        <v>Cumulative_Avg</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" vm="3">
+        <v>44928</v>
+      </c>
+      <c r="F34">
+        <v>49.34</v>
+      </c>
+      <c r="G34" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H34">
+        <v>101.82</v>
+      </c>
+      <c r="I34">
+        <v>50.91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>44960</v>
       </c>
       <c r="B35">
         <v>45.84</v>
       </c>
-      <c r="D35" vm="2">
-        <v>44927</v>
-      </c>
-      <c r="E35">
-        <v>52.48</v>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" vm="4">
+        <v>44929</v>
       </c>
       <c r="F35">
-        <v>52.48</v>
-      </c>
-      <c r="G35">
-        <v>52.48</v>
+        <v>53.31</v>
+      </c>
+      <c r="G35" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H35">
-        <v>52.48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+        <v>155.13</v>
+      </c>
+      <c r="I35">
+        <v>51.71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>44961</v>
       </c>
       <c r="B36">
         <v>55.28</v>
       </c>
-      <c r="D36" vm="3">
-        <v>44928</v>
-      </c>
-      <c r="E36">
-        <v>49.34</v>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36" vm="5">
+        <v>44930</v>
       </c>
       <c r="F36">
-        <v>50.91</v>
-      </c>
-      <c r="G36">
-        <v>101.82</v>
+        <v>57.72</v>
+      </c>
+      <c r="G36" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H36">
-        <v>50.91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+        <v>212.85</v>
+      </c>
+      <c r="I36">
+        <v>53.212499999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>44962</v>
       </c>
       <c r="B37">
         <v>45.09</v>
       </c>
-      <c r="D37" vm="4">
-        <v>44929</v>
-      </c>
-      <c r="E37">
-        <v>53.31</v>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37" vm="6">
+        <v>44931</v>
       </c>
       <c r="F37">
-        <v>51.71</v>
-      </c>
-      <c r="G37">
-        <v>155.13</v>
+        <v>48.97</v>
+      </c>
+      <c r="G37" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H37">
-        <v>51.71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+        <v>261.82</v>
+      </c>
+      <c r="I37">
+        <v>52.363999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>44963</v>
       </c>
       <c r="B38">
         <v>52.28</v>
       </c>
-      <c r="D38" vm="5">
-        <v>44930</v>
-      </c>
-      <c r="E38">
-        <v>57.72</v>
+      <c r="D38">
+        <v>361</v>
+      </c>
+      <c r="E38" vm="17">
+        <v>45288</v>
       </c>
       <c r="F38">
-        <v>53.212499999999999</v>
+        <v>70.03</v>
       </c>
       <c r="G38">
-        <v>212.85</v>
+        <v>62.43</v>
       </c>
       <c r="H38">
-        <v>53.212499999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+        <v>20350.91</v>
+      </c>
+      <c r="I38">
+        <v>56.217983425414367</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>44964</v>
       </c>
       <c r="B39">
         <v>41.47</v>
       </c>
-      <c r="D39" vm="6">
-        <v>44931</v>
-      </c>
-      <c r="E39">
-        <v>48.97</v>
+      <c r="D39">
+        <v>362</v>
+      </c>
+      <c r="E39" vm="18">
+        <v>45289</v>
       </c>
       <c r="F39">
-        <v>52.363999999999997</v>
+        <v>61.85</v>
       </c>
       <c r="G39">
-        <v>261.82</v>
+        <v>63.102857142857147</v>
       </c>
       <c r="H39">
-        <v>52.363999999999997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+        <v>20412.759999999998</v>
+      </c>
+      <c r="I39">
+        <v>56.233498622589529</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>44965</v>
       </c>
       <c r="B40">
         <v>44.66</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D40">
+        <v>363</v>
+      </c>
+      <c r="E40" vm="19">
+        <v>45290</v>
+      </c>
+      <c r="F40">
+        <v>64.44</v>
+      </c>
+      <c r="G40">
+        <v>63.437142857142859</v>
+      </c>
+      <c r="H40">
+        <v>20477.2</v>
+      </c>
+      <c r="I40">
+        <v>56.25604395604396</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>44966</v>
       </c>
       <c r="B41">
         <v>52.32</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D41">
+        <v>364</v>
+      </c>
+      <c r="E41" vm="20">
+        <v>45291</v>
+      </c>
+      <c r="F41">
+        <v>65.92</v>
+      </c>
+      <c r="G41">
+        <v>64.171428571428564</v>
+      </c>
+      <c r="H41">
+        <v>20543.12</v>
+      </c>
+      <c r="I41">
+        <v>56.282520547945204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>44967</v>
       </c>
       <c r="B42">
         <v>55.06</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D42">
+        <v>365</v>
+      </c>
+      <c r="E42" vm="21">
+        <v>45292</v>
+      </c>
+      <c r="F42">
+        <v>60.49</v>
+      </c>
+      <c r="G42">
+        <v>63.688571428571436</v>
+      </c>
+      <c r="H42">
+        <v>20603.61</v>
+      </c>
+      <c r="I42">
+        <v>56.294016393442625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>44968</v>
       </c>
@@ -1756,135 +1886,376 @@
         <v>52.26</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>44969</v>
       </c>
       <c r="B44">
         <v>50.86</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D44" t="str" cm="1">
+        <f t="array" ref="D44:H59">_xlfn._xlws.PY(4,0)</f>
+        <v>Date</v>
+      </c>
+      <c r="E44" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="F44" t="str">
+        <v>Moving_Avg_7</v>
+      </c>
+      <c r="G44" t="str">
+        <v>Cumulative_Sum</v>
+      </c>
+      <c r="H44" t="str">
+        <v>Cumulative_Average</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
         <v>44970</v>
       </c>
       <c r="B45">
         <v>49.97</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D45" vm="2">
+        <v>44927</v>
+      </c>
+      <c r="E45">
+        <v>52.48</v>
+      </c>
+      <c r="F45">
+        <v>52.48</v>
+      </c>
+      <c r="G45">
+        <v>52.48</v>
+      </c>
+      <c r="H45">
+        <v>52.48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>44971</v>
       </c>
       <c r="B46">
         <v>44.11</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D46" vm="3">
+        <v>44928</v>
+      </c>
+      <c r="E46">
+        <v>49.34</v>
+      </c>
+      <c r="F46">
+        <v>50.91</v>
+      </c>
+      <c r="G46">
+        <v>101.82</v>
+      </c>
+      <c r="H46">
+        <v>50.91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>44972</v>
       </c>
       <c r="B47">
         <v>47.94</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D47" vm="4">
+        <v>44929</v>
+      </c>
+      <c r="E47">
+        <v>53.31</v>
+      </c>
+      <c r="F47">
+        <v>51.71</v>
+      </c>
+      <c r="G47">
+        <v>155.13</v>
+      </c>
+      <c r="H47">
+        <v>51.71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>44973</v>
       </c>
       <c r="B48">
         <v>49.27</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D48" vm="5">
+        <v>44930</v>
+      </c>
+      <c r="E48">
+        <v>57.72</v>
+      </c>
+      <c r="F48">
+        <v>53.212499999999999</v>
+      </c>
+      <c r="G48">
+        <v>212.85</v>
+      </c>
+      <c r="H48">
+        <v>53.212499999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>44974</v>
       </c>
       <c r="B49">
         <v>56.9</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D49" vm="6">
+        <v>44931</v>
+      </c>
+      <c r="E49">
+        <v>48.97</v>
+      </c>
+      <c r="F49">
+        <v>52.363999999999997</v>
+      </c>
+      <c r="G49">
+        <v>261.82</v>
+      </c>
+      <c r="H49">
+        <v>52.363999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>44975</v>
       </c>
       <c r="B50">
         <v>53.36</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D50" vm="7">
+        <v>44932</v>
+      </c>
+      <c r="E50">
+        <v>49</v>
+      </c>
+      <c r="F50">
+        <v>51.803333333333335</v>
+      </c>
+      <c r="G50">
+        <v>310.82</v>
+      </c>
+      <c r="H50">
+        <v>51.803333333333335</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1">
         <v>44976</v>
       </c>
       <c r="B51">
         <v>42.86</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D51" vm="8">
+        <v>44933</v>
+      </c>
+      <c r="E51">
+        <v>58.1</v>
+      </c>
+      <c r="F51">
+        <v>52.702857142857148</v>
+      </c>
+      <c r="G51">
+        <v>368.92</v>
+      </c>
+      <c r="H51">
+        <v>52.702857142857148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>44977</v>
       </c>
       <c r="B52">
         <v>53.33</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D52" vm="9">
+        <v>44934</v>
+      </c>
+      <c r="E52">
+        <v>54.08</v>
+      </c>
+      <c r="F52">
+        <v>52.931428571428569</v>
+      </c>
+      <c r="G52">
+        <v>423</v>
+      </c>
+      <c r="H52">
+        <v>52.875</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>44978</v>
       </c>
       <c r="B53">
         <v>49.82</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D53" vm="10">
+        <v>44935</v>
+      </c>
+      <c r="E53">
+        <v>47.93</v>
+      </c>
+      <c r="F53">
+        <v>52.730000000000004</v>
+      </c>
+      <c r="G53">
+        <v>470.93</v>
+      </c>
+      <c r="H53">
+        <v>52.325555555555553</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>44979</v>
       </c>
       <c r="B54">
         <v>48.4</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D54" vm="11">
+        <v>44936</v>
+      </c>
+      <c r="E54">
+        <v>53.02</v>
+      </c>
+      <c r="F54">
+        <v>52.688571428571429</v>
+      </c>
+      <c r="G54">
+        <v>523.95000000000005</v>
+      </c>
+      <c r="H54">
+        <v>52.395000000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>44980</v>
       </c>
       <c r="B55">
         <v>54.87</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D55" vm="12">
+        <v>44937</v>
+      </c>
+      <c r="E55">
+        <v>48.03</v>
+      </c>
+      <c r="F55">
+        <v>51.304285714285712</v>
+      </c>
+      <c r="G55">
+        <v>571.98</v>
+      </c>
+      <c r="H55">
+        <v>51.99818181818182</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>44981</v>
       </c>
       <c r="B56">
         <v>57</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D56" vm="13">
+        <v>44938</v>
+      </c>
+      <c r="E56">
+        <v>48.05</v>
+      </c>
+      <c r="F56">
+        <v>51.172857142857147</v>
+      </c>
+      <c r="G56">
+        <v>620.03</v>
+      </c>
+      <c r="H56">
+        <v>51.669166666666662</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>44982</v>
       </c>
       <c r="B57">
         <v>56.54</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D57" vm="14">
+        <v>44939</v>
+      </c>
+      <c r="E57">
+        <v>51.62</v>
+      </c>
+      <c r="F57">
+        <v>51.547142857142852</v>
+      </c>
+      <c r="G57">
+        <v>671.65</v>
+      </c>
+      <c r="H57">
+        <v>51.66538461538461</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>44983</v>
       </c>
       <c r="B58">
         <v>47.72</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D58" vm="15">
+        <v>44940</v>
+      </c>
+      <c r="E58">
+        <v>40.880000000000003</v>
+      </c>
+      <c r="F58">
+        <v>49.087142857142858</v>
+      </c>
+      <c r="G58">
+        <v>712.53</v>
+      </c>
+      <c r="H58">
+        <v>50.894999999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>44984</v>
       </c>
       <c r="B59">
         <v>50.41</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D59" vm="16">
+        <v>44941</v>
+      </c>
+      <c r="E59">
+        <v>41.85</v>
+      </c>
+      <c r="F59">
+        <v>47.339999999999996</v>
+      </c>
+      <c r="G59">
+        <v>754.38</v>
+      </c>
+      <c r="H59">
+        <v>50.292000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>44985</v>
       </c>
@@ -1892,7 +2263,7 @@
         <v>53.64</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>44986</v>
       </c>
@@ -1900,7 +2271,7 @@
         <v>56.9</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>44987</v>
       </c>
@@ -1908,7 +2279,7 @@
         <v>49.66</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1">
         <v>44988</v>
       </c>
@@ -1916,7 +2287,7 @@
         <v>51.16</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>44989</v>
       </c>
@@ -1924,7 +2295,7 @@
         <v>46.59</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>44990</v>
       </c>
@@ -1932,7 +2303,7 @@
         <v>46.18</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>44991</v>
       </c>
@@ -1940,7 +2311,7 @@
         <v>56.25</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>44992</v>
       </c>
@@ -1948,7 +2319,7 @@
         <v>59.01</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>44993</v>
       </c>
@@ -1956,7 +2327,7 @@
         <v>51.9</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1">
         <v>44994</v>
       </c>
@@ -1964,7 +2335,7 @@
         <v>57.31</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>44995</v>
       </c>
@@ -1972,7 +2343,7 @@
         <v>54.14</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>44996</v>
       </c>
@@ -1980,7 +2351,7 @@
         <v>49.14</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>44997</v>
       </c>
@@ -1988,7 +2359,7 @@
         <v>54.2</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1">
         <v>44998</v>
       </c>
@@ -1996,7 +2367,7 @@
         <v>60.12</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1">
         <v>44999</v>
       </c>
@@ -2004,7 +2375,7 @@
         <v>52.29</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1">
         <v>45000</v>
       </c>
@@ -2012,7 +2383,7 @@
         <v>60.32</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1">
         <v>45001</v>
       </c>
@@ -2020,7 +2391,7 @@
         <v>39.44</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1">
         <v>45002</v>
       </c>
@@ -2028,7 +2399,7 @@
         <v>56.68</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1">
         <v>45003</v>
       </c>
@@ -2036,7 +2407,7 @@
         <v>53.04</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1">
         <v>45004</v>
       </c>
@@ -2044,7 +2415,7 @@
         <v>51.14</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1">
         <v>45005</v>
       </c>
@@ -2052,7 +2423,7 @@
         <v>53.13</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1">
         <v>45006</v>
       </c>
@@ -2060,7 +2431,7 @@
         <v>42.77</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1">
         <v>45007</v>
       </c>
@@ -2068,7 +2439,7 @@
         <v>51.64</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1">
         <v>45008</v>
       </c>
@@ -2076,7 +2447,7 @@
         <v>54.56</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1">
         <v>45009</v>
       </c>
@@ -2084,7 +2455,7 @@
         <v>60.2</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1">
         <v>45010</v>
       </c>
@@ -2092,7 +2463,7 @@
         <v>50.25</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1">
         <v>45011</v>
       </c>
@@ -2100,7 +2471,7 @@
         <v>48.83</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1">
         <v>45012</v>
       </c>
@@ -2108,7 +2479,7 @@
         <v>50.4</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1">
         <v>45013</v>
       </c>
@@ -2116,7 +2487,7 @@
         <v>57.52</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1">
         <v>45014</v>
       </c>
@@ -2124,7 +2495,7 @@
         <v>54.62</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1">
         <v>45015</v>
       </c>
@@ -2132,7 +2503,7 @@
         <v>50.36</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1">
         <v>45016</v>
       </c>
@@ -2140,7 +2511,7 @@
         <v>55.61</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1">
         <v>45017</v>
       </c>
@@ -2148,7 +2519,7 @@
         <v>53.57</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1">
         <v>45018</v>
       </c>
@@ -2156,7 +2527,7 @@
         <v>57.96</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1">
         <v>45019</v>
       </c>
@@ -2164,7 +2535,7 @@
         <v>49.64</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1">
         <v>45020</v>
       </c>
@@ -2172,7 +2543,7 @@
         <v>51.55</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1">
         <v>45021</v>
       </c>
@@ -2180,7 +2551,7 @@
         <v>51.26</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1">
         <v>45022</v>
       </c>
@@ -2188,7 +2559,7 @@
         <v>45.94</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1">
         <v>45023</v>
       </c>
@@ -2196,7 +2567,7 @@
         <v>54.77</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1">
         <v>45024</v>
       </c>
@@ -2204,7 +2575,7 @@
         <v>54.63</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1">
         <v>45025</v>
       </c>
@@ -2212,7 +2583,7 @@
         <v>53.38</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1">
         <v>45026</v>
       </c>
@@ -2220,7 +2591,7 @@
         <v>52.22</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1">
         <v>45027</v>
       </c>
@@ -2228,7 +2599,7 @@
         <v>46.35</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1">
         <v>45028</v>
       </c>
@@ -2236,7 +2607,7 @@
         <v>51.36</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1">
         <v>45029</v>
       </c>
@@ -2244,7 +2615,7 @@
         <v>51.78</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1">
         <v>45030</v>
       </c>
@@ -2252,7 +2623,7 @@
         <v>49.52</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1">
         <v>45031</v>
       </c>
@@ -2260,7 +2631,7 @@
         <v>52.76</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1">
         <v>45032</v>
       </c>
@@ -2268,7 +2639,7 @@
         <v>55.62</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1">
         <v>45033</v>
       </c>
@@ -2276,7 +2647,7 @@
         <v>63.06</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1">
         <v>45034</v>
       </c>
@@ -2284,7 +2655,7 @@
         <v>54.54</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1">
         <v>45035</v>
       </c>
@@ -2292,7 +2663,7 @@
         <v>54.99</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1">
         <v>45036</v>
       </c>
@@ -2300,7 +2671,7 @@
         <v>53.36</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1">
         <v>45037</v>
       </c>
@@ -2308,7 +2679,7 @@
         <v>44.17</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1">
         <v>45038</v>
       </c>
@@ -2316,7 +2687,7 @@
         <v>53.67</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1">
         <v>45039</v>
       </c>
@@ -2324,7 +2695,7 @@
         <v>54.14</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1">
         <v>45040</v>
       </c>
@@ -2332,7 +2703,7 @@
         <v>66.19</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1">
         <v>45041</v>
       </c>
@@ -2340,7 +2711,7 @@
         <v>52.94</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1">
         <v>45042</v>
       </c>
@@ -2348,7 +2719,7 @@
         <v>55.45</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1">
         <v>45043</v>
       </c>
@@ -2356,7 +2727,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1">
         <v>45044</v>
       </c>
@@ -2364,7 +2735,7 @@
         <v>48.16</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1">
         <v>45045</v>
       </c>
@@ -2372,7 +2743,7 @@
         <v>59.76</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1">
         <v>45046</v>
       </c>
@@ -2380,7 +2751,7 @@
         <v>57.84</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1">
         <v>45047</v>
       </c>
@@ -2388,7 +2759,7 @@
         <v>58.06</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1">
         <v>45048</v>
       </c>
@@ -2396,7 +2767,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1">
         <v>45049</v>
       </c>
@@ -2404,7 +2775,7 @@
         <v>61.19</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1">
         <v>45050</v>
       </c>
@@ -2412,7 +2783,7 @@
         <v>47.2</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1">
         <v>45051</v>
       </c>
@@ -2420,7 +2791,7 @@
         <v>57.18</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1">
         <v>45052</v>
       </c>
@@ -2428,7 +2799,7 @@
         <v>65.23</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1">
         <v>45053</v>
       </c>
@@ -2436,7 +2807,7 @@
         <v>49.36</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1">
         <v>45054</v>
       </c>
@@ -2444,7 +2815,7 @@
         <v>51.52</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1">
         <v>45055</v>
       </c>
@@ -2452,7 +2823,7 @@
         <v>54.88</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1">
         <v>45056</v>
       </c>
@@ -2460,7 +2831,7 @@
         <v>51.9</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1">
         <v>45057</v>
       </c>
@@ -2468,7 +2839,7 @@
         <v>46.7</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1">
         <v>45058</v>
       </c>
@@ -2476,7 +2847,7 @@
         <v>54.83</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1">
         <v>45059</v>
       </c>
@@ -2484,7 +2855,7 @@
         <v>49.21</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1">
         <v>45060</v>
       </c>
@@ -2492,7 +2863,7 @@
         <v>56.92</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1">
         <v>45061</v>
       </c>
@@ -2500,7 +2871,7 @@
         <v>49.99</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1">
         <v>45062</v>
       </c>
@@ -2508,7 +2879,7 @@
         <v>62.37</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1">
         <v>45063</v>
       </c>
@@ -2516,7 +2887,7 @@
         <v>50.74</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1">
         <v>45064</v>
       </c>
@@ -2524,7 +2895,7 @@
         <v>53.08</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1">
         <v>45065</v>
       </c>
@@ -2532,7 +2903,7 @@
         <v>58.79</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1">
         <v>45066</v>
       </c>
@@ -2540,7 +2911,7 @@
         <v>48.61</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1">
         <v>45067</v>
       </c>
@@ -2548,7 +2919,7 @@
         <v>55.93</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1">
         <v>45068</v>
       </c>
@@ -2556,7 +2927,7 @@
         <v>61.36</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1">
         <v>45069</v>
       </c>
@@ -2564,7 +2935,7 @@
         <v>46.83</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1">
         <v>45070</v>
       </c>
@@ -2572,7 +2943,7 @@
         <v>55.82</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1">
         <v>45071</v>
       </c>
@@ -2580,7 +2951,7 @@
         <v>56.23</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1">
         <v>45072</v>
       </c>
@@ -2588,7 +2959,7 @@
         <v>58.87</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1">
         <v>45073</v>
       </c>
@@ -2596,7 +2967,7 @@
         <v>48.82</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1">
         <v>45074</v>
       </c>
@@ -2604,7 +2975,7 @@
         <v>48.43</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1">
         <v>45075</v>
       </c>
@@ -2612,7 +2983,7 @@
         <v>57.68</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1">
         <v>45076</v>
       </c>
@@ -2620,7 +2991,7 @@
         <v>56.59</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1">
         <v>45077</v>
       </c>
@@ -2628,7 +2999,7 @@
         <v>56.39</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1">
         <v>45078</v>
       </c>
@@ -2636,7 +3007,7 @@
         <v>56.9</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1">
         <v>45079</v>
       </c>
@@ -2644,7 +3015,7 @@
         <v>51.81</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1">
         <v>45080</v>
       </c>
@@ -2652,7 +3023,7 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1">
         <v>45081</v>
       </c>
@@ -2660,7 +3031,7 @@
         <v>56.74</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1">
         <v>45082</v>
       </c>
@@ -2668,7 +3039,7 @@
         <v>51.74</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1">
         <v>45083</v>
       </c>
@@ -2676,7 +3047,7 @@
         <v>64.67</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1">
         <v>45084</v>
       </c>
@@ -2684,7 +3055,7 @@
         <v>57.75</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1">
         <v>45085</v>
       </c>
@@ -2692,7 +3063,7 @@
         <v>49.45</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1">
         <v>45086</v>
       </c>
@@ -2700,7 +3071,7 @@
         <v>58.73</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1">
         <v>45087</v>
       </c>
@@ -2708,7 +3079,7 @@
         <v>50.61</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1">
         <v>45088</v>
       </c>
@@ -2716,7 +3087,7 @@
         <v>59.45</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1">
         <v>45089</v>
       </c>
@@ -2724,7 +3095,7 @@
         <v>61.34</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1">
         <v>45090</v>
       </c>
@@ -2732,7 +3103,7 @@
         <v>51.48</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1">
         <v>45091</v>
       </c>
@@ -2740,7 +3111,7 @@
         <v>60.43</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1">
         <v>45092</v>
       </c>
@@ -2748,7 +3119,7 @@
         <v>57.71</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1">
         <v>45093</v>
       </c>
@@ -2756,7 +3127,7 @@
         <v>59.8</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1">
         <v>45094</v>
       </c>
@@ -2764,7 +3135,7 @@
         <v>65.2</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1">
         <v>45095</v>
       </c>
@@ -2772,7 +3143,7 @@
         <v>54.53</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1">
         <v>45096</v>
       </c>
@@ -2780,7 +3151,7 @@
         <v>52.02</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1">
         <v>45097</v>
       </c>
@@ -2788,7 +3159,7 @@
         <v>51.37</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1">
         <v>45098</v>
       </c>
@@ -2796,7 +3167,7 @@
         <v>51.78</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1">
         <v>45099</v>
       </c>
@@ -2804,7 +3175,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1">
         <v>45100</v>
       </c>
@@ -2812,7 +3183,7 @@
         <v>57.63</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1">
         <v>45101</v>
       </c>
@@ -2820,7 +3191,7 @@
         <v>57.34</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1">
         <v>45102</v>
       </c>
@@ -2828,7 +3199,7 @@
         <v>60.13</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1">
         <v>45103</v>
       </c>
@@ -2836,7 +3207,7 @@
         <v>56.09</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1">
         <v>45104</v>
       </c>
@@ -2844,7 +3215,7 @@
         <v>63.33</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1">
         <v>45105</v>
       </c>
@@ -2852,7 +3223,7 @@
         <v>54.77</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1">
         <v>45106</v>
       </c>
@@ -2860,7 +3231,7 @@
         <v>69.73</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1">
         <v>45107</v>
       </c>
@@ -2868,7 +3239,7 @@
         <v>59.29</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1">
         <v>45108</v>
       </c>
@@ -2876,7 +3247,7 @@
         <v>51.91</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1">
         <v>45109</v>
       </c>
@@ -2884,7 +3255,7 @@
         <v>50.88</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1">
         <v>45110</v>
       </c>
@@ -2892,7 +3263,7 @@
         <v>58.68</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1">
         <v>45111</v>
       </c>
@@ -2900,7 +3271,7 @@
         <v>55.18</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1">
         <v>45112</v>
       </c>
@@ -2908,7 +3279,7 @@
         <v>59.91</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="1">
         <v>45113</v>
       </c>
@@ -2916,7 +3287,7 @@
         <v>58.74</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1">
         <v>45114</v>
       </c>
@@ -2924,7 +3295,7 @@
         <v>56.04</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1">
         <v>45115</v>
       </c>
@@ -2932,7 +3303,7 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="1">
         <v>45116</v>
       </c>
@@ -2940,7 +3311,7 @@
         <v>48.9</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="1">
         <v>45117</v>
       </c>
@@ -2948,7 +3319,7 @@
         <v>54.27</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="1">
         <v>45118</v>
       </c>
@@ -2956,7 +3327,7 @@
         <v>60.82</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="1">
         <v>45119</v>
       </c>
@@ -2964,7 +3335,7 @@
         <v>57.65</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="1">
         <v>45120</v>
       </c>
@@ -2972,7 +3343,7 @@
         <v>50.38</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="1">
         <v>45121</v>
       </c>
@@ -2980,7 +3351,7 @@
         <v>57.51</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1">
         <v>45122</v>
       </c>
@@ -2988,7 +3359,7 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1">
         <v>45123</v>
       </c>
@@ -2996,7 +3367,7 @@
         <v>52.29</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="1">
         <v>45124</v>
       </c>
@@ -3004,7 +3375,7 @@
         <v>57.52</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="1">
         <v>45125</v>
       </c>
@@ -3012,7 +3383,7 @@
         <v>57.07</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="1">
         <v>45126</v>
       </c>
@@ -3020,7 +3391,7 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="1">
         <v>45127</v>
       </c>
@@ -3028,7 +3399,7 @@
         <v>58.64</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="1">
         <v>45128</v>
       </c>
@@ -3036,7 +3407,7 @@
         <v>59.69</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="1">
         <v>45129</v>
       </c>
@@ -3044,7 +3415,7 @@
         <v>62.33</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="1">
         <v>45130</v>
       </c>
@@ -3052,7 +3423,7 @@
         <v>62.22</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="1">
         <v>45131</v>
       </c>
@@ -3060,7 +3431,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="1">
         <v>45132</v>
       </c>
@@ -3068,7 +3439,7 @@
         <v>52.33</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="1">
         <v>45133</v>
       </c>
@@ -3076,7 +3447,7 @@
         <v>59.63</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="1">
         <v>45134</v>
       </c>
@@ -3084,7 +3455,7 @@
         <v>59.66</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="1">
         <v>45135</v>
       </c>
@@ -3092,7 +3463,7 @@
         <v>59.7</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="1">
         <v>45136</v>
       </c>
@@ -3100,7 +3471,7 @@
         <v>76.42</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="1">
         <v>45137</v>
       </c>
@@ -3108,7 +3479,7 @@
         <v>60.05</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="1">
         <v>45138</v>
       </c>
@@ -3116,7 +3487,7 @@
         <v>62.9</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="1">
         <v>45139</v>
       </c>
@@ -3124,7 +3495,7 @@
         <v>62.03</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="1">
         <v>45140</v>
       </c>
@@ -3132,7 +3503,7 @@
         <v>60.55</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="1">
         <v>45141</v>
       </c>
@@ -3140,7 +3511,7 @@
         <v>55.75</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="1">
         <v>45142</v>
       </c>
@@ -3148,7 +3519,7 @@
         <v>61.16</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="1">
         <v>45143</v>
       </c>
@@ -3156,7 +3527,7 @@
         <v>53.53</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="1">
         <v>45144</v>
       </c>
@@ -3164,7 +3535,7 @@
         <v>56.25</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="1">
         <v>45145</v>
       </c>
@@ -3172,7 +3543,7 @@
         <v>55.04</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="1">
         <v>45146</v>
       </c>
@@ -3180,7 +3551,7 @@
         <v>57.91</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="1">
         <v>45147</v>
       </c>
@@ -3188,7 +3559,7 @@
         <v>69.11</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="1">
         <v>45148</v>
       </c>
@@ -3196,7 +3567,7 @@
         <v>48.23</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="1">
         <v>45149</v>
       </c>
@@ -3204,7 +3575,7 @@
         <v>61.03</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="1">
         <v>45150</v>
       </c>
@@ -3212,7 +3583,7 @@
         <v>49.57</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="1">
         <v>45151</v>
       </c>
@@ -3220,7 +3591,7 @@
         <v>55.31</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="1">
         <v>45152</v>
       </c>
@@ -3228,7 +3599,7 @@
         <v>63.15</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="1">
         <v>45153</v>
       </c>
@@ -3236,7 +3607,7 @@
         <v>58.06</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="1">
         <v>45154</v>
       </c>
@@ -3244,7 +3615,7 @@
         <v>52.39</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="1">
         <v>45155</v>
       </c>
@@ -3252,7 +3623,7 @@
         <v>54.23</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="1">
         <v>45156</v>
       </c>
@@ -3260,7 +3631,7 @@
         <v>61.24</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="1">
         <v>45157</v>
       </c>
@@ -3268,7 +3639,7 @@
         <v>54.22</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="1">
         <v>45158</v>
       </c>
@@ -3276,7 +3647,7 @@
         <v>58.99</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="1">
         <v>45159</v>
       </c>
@@ -3284,7 +3655,7 @@
         <v>58.17</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="1">
         <v>45160</v>
       </c>
@@ -3292,7 +3663,7 @@
         <v>54.72</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="1">
         <v>45161</v>
       </c>
@@ -3300,7 +3671,7 @@
         <v>68.73</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="1">
         <v>45162</v>
       </c>
@@ -3308,7 +3679,7 @@
         <v>61.22</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="1">
         <v>45163</v>
       </c>
@@ -3316,7 +3687,7 @@
         <v>47.96</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="1">
         <v>45164</v>
       </c>
@@ -3324,7 +3695,7 @@
         <v>59.05</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="1">
         <v>45165</v>
       </c>
@@ -3332,7 +3703,7 @@
         <v>54.84</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="1">
         <v>45166</v>
       </c>
@@ -3340,7 +3711,7 @@
         <v>62.45</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="1">
         <v>45167</v>
       </c>
@@ -3348,7 +3719,7 @@
         <v>54.26</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="1">
         <v>45168</v>
       </c>
@@ -3356,7 +3727,7 @@
         <v>57.68</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="1">
         <v>45169</v>
       </c>
@@ -3364,7 +3735,7 @@
         <v>60.81</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="1">
         <v>45170</v>
       </c>
@@ -3372,7 +3743,7 @@
         <v>62.65</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="1">
         <v>45171</v>
       </c>
@@ -3380,7 +3751,7 @@
         <v>52.35</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="1">
         <v>45172</v>
       </c>
@@ -3388,7 +3759,7 @@
         <v>56.72</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="1">
         <v>45173</v>
       </c>
@@ -3396,7 +3767,7 @@
         <v>56.05</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="1">
         <v>45174</v>
       </c>
@@ -3404,7 +3775,7 @@
         <v>55.19</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="1">
         <v>45175</v>
       </c>
@@ -3412,7 +3783,7 @@
         <v>67.319999999999993</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="1">
         <v>45176</v>
       </c>
@@ -3420,7 +3791,7 @@
         <v>60.55</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="1">
         <v>45177</v>
       </c>
@@ -3428,7 +3799,7 @@
         <v>52.26</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="1">
         <v>45178</v>
       </c>
@@ -3436,7 +3807,7 @@
         <v>63.19</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="1">
         <v>45179</v>
       </c>
@@ -3444,7 +3815,7 @@
         <v>69.239999999999995</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="1">
         <v>45180</v>
       </c>
@@ -3452,7 +3823,7 @@
         <v>63.83</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="1">
         <v>45181</v>
       </c>
@@ -3460,7 +3831,7 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="1">
         <v>45182</v>
       </c>
@@ -3468,7 +3839,7 @@
         <v>56.31</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="1">
         <v>45183</v>
       </c>
@@ -3476,7 +3847,7 @@
         <v>65.099999999999994</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="1">
         <v>45184</v>
       </c>
@@ -3484,7 +3855,7 @@
         <v>55.26</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="1">
         <v>45185</v>
       </c>
@@ -3492,7 +3863,7 @@
         <v>61.05</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="1">
         <v>45186</v>
       </c>
@@ -3500,7 +3871,7 @@
         <v>62.74</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="1">
         <v>45187</v>
       </c>
@@ -3508,7 +3879,7 @@
         <v>54.27</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="1">
         <v>45188</v>
       </c>
@@ -3516,7 +3887,7 @@
         <v>58.64</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="1">
         <v>45189</v>
       </c>
@@ -3524,7 +3895,7 @@
         <v>42.77</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="1">
         <v>45190</v>
       </c>
@@ -3532,7 +3903,7 @@
         <v>53.88</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="1">
         <v>45191</v>
       </c>
@@ -3540,7 +3911,7 @@
         <v>57.78</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="1">
         <v>45192</v>
       </c>
@@ -3548,7 +3919,7 @@
         <v>52.84</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="1">
         <v>45193</v>
       </c>
@@ -3556,7 +3927,7 @@
         <v>67.27</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="1">
         <v>45194</v>
       </c>
@@ -3564,7 +3935,7 @@
         <v>51.99</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="1">
         <v>45195</v>
       </c>
@@ -3572,7 +3943,7 @@
         <v>56.98</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="1">
         <v>45196</v>
       </c>
@@ -3580,7 +3951,7 @@
         <v>59.87</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="1">
         <v>45197</v>
       </c>
@@ -3588,7 +3959,7 @@
         <v>66.45</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="1">
         <v>45198</v>
       </c>
@@ -3596,7 +3967,7 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="1">
         <v>45199</v>
       </c>
@@ -3604,7 +3975,7 @@
         <v>65.13</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="1">
         <v>45200</v>
       </c>
@@ -3612,7 +3983,7 @@
         <v>59.4</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="1">
         <v>45201</v>
       </c>
@@ -3620,7 +3991,7 @@
         <v>54.48</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="1">
         <v>45202</v>
       </c>
@@ -3628,7 +3999,7 @@
         <v>61.73</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="1">
         <v>45203</v>
       </c>
@@ -3636,7 +4007,7 @@
         <v>60.45</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="1">
         <v>45204</v>
       </c>
@@ -3644,7 +4015,7 @@
         <v>56.49</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="1">
         <v>45205</v>
       </c>
@@ -3652,7 +4023,7 @@
         <v>59.87</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="1">
         <v>45206</v>
       </c>
@@ -3660,7 +4031,7 @@
         <v>57.63</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="1">
         <v>45207</v>
       </c>
@@ -3668,7 +4039,7 @@
         <v>60.16</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="1">
         <v>45208</v>
       </c>
@@ -3676,7 +4047,7 @@
         <v>62.93</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="1">
         <v>45209</v>
       </c>
@@ -3684,7 +4055,7 @@
         <v>67.59</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="1">
         <v>45210</v>
       </c>
@@ -3692,7 +4063,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="1">
         <v>45211</v>
       </c>
@@ -3700,7 +4071,7 @@
         <v>70.39</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="1">
         <v>45212</v>
       </c>
@@ -3708,7 +4079,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="1">
         <v>45213</v>
       </c>
@@ -3716,7 +4087,7 @@
         <v>59.04</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="1">
         <v>45214</v>
       </c>
@@ -3724,7 +4095,7 @@
         <v>62.77</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="1">
         <v>45215</v>
       </c>
@@ -3732,7 +4103,7 @@
         <v>61.27</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="1">
         <v>45216</v>
       </c>
@@ -3740,7 +4111,7 @@
         <v>56.78</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="1">
         <v>45217</v>
       </c>
@@ -3748,7 +4119,7 @@
         <v>58.89</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="1">
         <v>45218</v>
       </c>
@@ -3756,7 +4127,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="1">
         <v>45219</v>
       </c>
@@ -3764,7 +4135,7 @@
         <v>57.05</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="1">
         <v>45220</v>
       </c>
@@ -3772,7 +4143,7 @@
         <v>64.28</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="1">
         <v>45221</v>
       </c>
@@ -3780,7 +4151,7 @@
         <v>61.85</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="1">
         <v>45222</v>
       </c>
@@ -3788,7 +4159,7 @@
         <v>56.64</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="1">
         <v>45223</v>
       </c>
@@ -3796,7 +4167,7 @@
         <v>64.63</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="1">
         <v>45224</v>
       </c>
@@ -3804,7 +4175,7 @@
         <v>61.71</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="1">
         <v>45225</v>
       </c>
@@ -3812,7 +4183,7 @@
         <v>64.27</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="1">
         <v>45226</v>
       </c>
@@ -3820,7 +4191,7 @@
         <v>63.39</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="1">
         <v>45227</v>
       </c>
@@ -3828,7 +4199,7 @@
         <v>56.13</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="1">
         <v>45228</v>
       </c>
@@ -3836,7 +4207,7 @@
         <v>57.51</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="1">
         <v>45229</v>
       </c>
@@ -3844,7 +4215,7 @@
         <v>64.08</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="1">
         <v>45230</v>
       </c>
@@ -3852,7 +4223,7 @@
         <v>63.43</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="1">
         <v>45231</v>
       </c>
@@ -3860,7 +4231,7 @@
         <v>60.31</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="1">
         <v>45232</v>
       </c>
@@ -3868,7 +4239,7 @@
         <v>61.03</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="1">
         <v>45233</v>
       </c>
@@ -3876,7 +4247,7 @@
         <v>66.87</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="1">
         <v>45234</v>
       </c>
@@ -3884,7 +4255,7 @@
         <v>57.56</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="1">
         <v>45235</v>
       </c>
@@ -3892,7 +4263,7 @@
         <v>63.28</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="1">
         <v>45236</v>
       </c>
@@ -3900,7 +4271,7 @@
         <v>59.57</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="1">
         <v>45237</v>
       </c>
@@ -3908,7 +4279,7 @@
         <v>59.53</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="1">
         <v>45238</v>
       </c>
@@ -3916,7 +4287,7 @@
         <v>66.14</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="1">
         <v>45239</v>
       </c>
@@ -3924,7 +4295,7 @@
         <v>64.81</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="1">
         <v>45240</v>
       </c>
@@ -3932,7 +4303,7 @@
         <v>64.790000000000006</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="1">
         <v>45241</v>
       </c>
@@ -3940,7 +4311,7 @@
         <v>67.28</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="1">
         <v>45242</v>
       </c>
@@ -3948,7 +4319,7 @@
         <v>60.89</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="1">
         <v>45243</v>
       </c>
@@ -3956,7 +4327,7 @@
         <v>64.23</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="1">
         <v>45244</v>
       </c>
@@ -3964,7 +4335,7 @@
         <v>59.3</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="1">
         <v>45245</v>
       </c>
@@ -3972,7 +4343,7 @@
         <v>62.51</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="1">
         <v>45246</v>
       </c>
@@ -3980,7 +4351,7 @@
         <v>60.27</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="1">
         <v>45247</v>
       </c>
@@ -3988,7 +4359,7 @@
         <v>61.44</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="1">
         <v>45248</v>
       </c>
@@ -3996,7 +4367,7 @@
         <v>63.97</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="1">
         <v>45249</v>
       </c>
@@ -4004,7 +4375,7 @@
         <v>56.94</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="1">
         <v>45250</v>
       </c>
@@ -4012,7 +4383,7 @@
         <v>71.52</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="1">
         <v>45251</v>
       </c>
@@ -4020,7 +4391,7 @@
         <v>56.07</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="1">
         <v>45252</v>
       </c>
@@ -4028,7 +4399,7 @@
         <v>55.06</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" s="1">
         <v>45253</v>
       </c>
@@ -4036,7 +4407,7 @@
         <v>66.95</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="1">
         <v>45254</v>
       </c>
@@ -4044,7 +4415,7 @@
         <v>65.16</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="1">
         <v>45255</v>
       </c>
@@ -4052,7 +4423,7 @@
         <v>64.349999999999994</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="1">
         <v>45256</v>
       </c>
@@ -4060,7 +4431,7 @@
         <v>64.41</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="1">
         <v>45257</v>
       </c>
@@ -4068,7 +4439,7 @@
         <v>61.24</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="1">
         <v>45258</v>
       </c>
@@ -4076,7 +4447,7 @@
         <v>56.85</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" s="1">
         <v>45259</v>
       </c>
@@ -4084,7 +4455,7 @@
         <v>61.75</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" s="1">
         <v>45260</v>
       </c>
@@ -4092,7 +4463,7 @@
         <v>58.02</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" s="1">
         <v>45261</v>
       </c>
@@ -4100,7 +4471,7 @@
         <v>66.31</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="1">
         <v>45262</v>
       </c>
@@ -4108,7 +4479,7 @@
         <v>60.74</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" s="1">
         <v>45263</v>
       </c>
@@ -4116,7 +4487,7 @@
         <v>57.38</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="1">
         <v>45264</v>
       </c>
@@ -4124,7 +4495,7 @@
         <v>59.93</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="1">
         <v>45265</v>
       </c>
@@ -4132,7 +4503,7 @@
         <v>63.64</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" s="1">
         <v>45266</v>
       </c>
@@ -4140,7 +4511,7 @@
         <v>58.79</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" s="1">
         <v>45267</v>
       </c>
@@ -4148,7 +4519,7 @@
         <v>57.53</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" s="1">
         <v>45268</v>
       </c>
@@ -4156,7 +4527,7 @@
         <v>62.9</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" s="1">
         <v>45269</v>
       </c>
@@ -4164,7 +4535,7 @@
         <v>62.94</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" s="1">
         <v>45270</v>
       </c>
@@ -4172,7 +4543,7 @@
         <v>59.21</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" s="1">
         <v>45271</v>
       </c>
@@ -4180,7 +4551,7 @@
         <v>59.43</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" s="1">
         <v>45272</v>
       </c>
@@ -4188,7 +4559,7 @@
         <v>62.98</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" s="1">
         <v>45273</v>
       </c>
@@ -4196,7 +4567,7 @@
         <v>54.61</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" s="1">
         <v>45274</v>
       </c>
@@ -4204,7 +4575,7 @@
         <v>54.85</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" s="1">
         <v>45275</v>
       </c>
@@ -4212,7 +4583,7 @@
         <v>58.33</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" s="1">
         <v>45276</v>
       </c>
@@ -4220,7 +4591,7 @@
         <v>60.88</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" s="1">
         <v>45277</v>
       </c>
@@ -4228,7 +4599,7 @@
         <v>63.54</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" s="1">
         <v>45278</v>
       </c>
@@ -4236,7 +4607,7 @@
         <v>69.400000000000006</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" s="1">
         <v>45279</v>
       </c>
@@ -4244,7 +4615,7 @@
         <v>66.34</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" s="1">
         <v>45280</v>
       </c>
@@ -4252,7 +4623,7 @@
         <v>61.29</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" s="1">
         <v>45281</v>
       </c>
@@ -4260,7 +4631,7 @@
         <v>62.03</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" s="1">
         <v>45282</v>
       </c>
@@ -4268,7 +4639,7 @@
         <v>57.14</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" s="1">
         <v>45283</v>
       </c>
@@ -4276,7 +4647,7 @@
         <v>62.1</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" s="1">
         <v>45284</v>
       </c>
@@ -4284,7 +4655,7 @@
         <v>60.78</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" s="1">
         <v>45285</v>
       </c>
@@ -4292,7 +4663,7 @@
         <v>63.87</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" s="1">
         <v>45286</v>
       </c>
@@ -4300,7 +4671,7 @@
         <v>58.16</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" s="1">
         <v>45287</v>
       </c>
@@ -4308,7 +4679,7 @@
         <v>64.930000000000007</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" s="1">
         <v>45288</v>
       </c>
@@ -4316,7 +4687,7 @@
         <v>70.03</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" s="1">
         <v>45289</v>
       </c>
@@ -4324,7 +4695,7 @@
         <v>61.85</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" s="1">
         <v>45290</v>
       </c>
@@ -4332,7 +4703,7 @@
         <v>64.44</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" s="1">
         <v>45291</v>
       </c>
@@ -4340,7 +4711,7 @@
         <v>65.92</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" s="1">
         <v>45292</v>
       </c>

--- a/9-rolling-cumulative-aggregations/9-rolling-cumulative-aggregations-solution.xlsx
+++ b/9-rolling-cumulative-aggregations/9-rolling-cumulative-aggregations-solution.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\9-rolling-cumulative-aggregations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88A3CB65-4C6D-4EAC-BB86-8634CFCF4A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F339D4-1EBD-41CD-A7D0-E84D815AAE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="9-rolling-cumulative-aggregate" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
